--- a/DokkanKits/160.xlsx
+++ b/DokkanKits/160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47231B68-38ED-4222-A173-4E74B7E4B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -182,145 +182,166 @@
     <t>Link 2</t>
   </si>
   <si>
+    <t>Link 3</t>
+  </si>
+  <si>
+    <t>Super Saiyan</t>
+  </si>
+  <si>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>Link 5</t>
+  </si>
+  <si>
+    <t>Link 6</t>
+  </si>
+  <si>
+    <t>Fierce Battle</t>
+  </si>
+  <si>
+    <t>Link 7</t>
+  </si>
+  <si>
+    <t>Legendary Power</t>
+  </si>
+  <si>
+    <t>Passive Ki</t>
+  </si>
+  <si>
+    <t>Collect Ki</t>
+  </si>
+  <si>
+    <t>Intentional 12 Ki</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>P Guard</t>
+  </si>
+  <si>
+    <t>Dmg Red</t>
+  </si>
+  <si>
+    <t>P Dodge</t>
+  </si>
+  <si>
+    <t>P Counter Normal</t>
+  </si>
+  <si>
+    <t>P Counter SA</t>
+  </si>
+  <si>
+    <t>P Nullify</t>
+  </si>
+  <si>
+    <t>AA P Super</t>
+  </si>
+  <si>
+    <t>AA P Guarantee</t>
+  </si>
+  <si>
+    <t>Passive Crit</t>
+  </si>
+  <si>
+    <t>P SEaaT</t>
+  </si>
+  <si>
+    <t>Link 1 Commonality</t>
+  </si>
+  <si>
+    <t>Link 2 Commonality</t>
+  </si>
+  <si>
+    <t>Link 3 Commonality</t>
+  </si>
+  <si>
+    <t>Link 4 Commonality</t>
+  </si>
+  <si>
+    <t>Link 5 Commonality</t>
+  </si>
+  <si>
+    <t>Link 6 Commonality</t>
+  </si>
+  <si>
+    <t>Link 7 Commonality</t>
+  </si>
+  <si>
+    <t>Giant/Rage Length</t>
+  </si>
+  <si>
+    <t>Active Skill Attack Multiplier</t>
+  </si>
+  <si>
+    <t>Dmg Red Normal</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Active Skill Turn</t>
+  </si>
+  <si>
+    <t>Active Skill</t>
+  </si>
+  <si>
+    <t>Standby Skill</t>
+  </si>
+  <si>
+    <t>Revival Skill</t>
+  </si>
+  <si>
+    <t>Revival Skill Turn</t>
+  </si>
+  <si>
+    <t>Mega-Colossal</t>
+  </si>
+  <si>
+    <t>Carnival LR</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gohan (Future)</t>
+  </si>
+  <si>
+    <t>Colossal</t>
+  </si>
+  <si>
+    <t>Dismal Future</t>
+  </si>
+  <si>
     <t>Saiyan Warrior Race</t>
   </si>
   <si>
-    <t>Link 3</t>
-  </si>
-  <si>
-    <t>Super Saiyan</t>
-  </si>
-  <si>
-    <t>Link 4</t>
-  </si>
-  <si>
-    <t>Kamehameha</t>
-  </si>
-  <si>
-    <t>Link 5</t>
-  </si>
-  <si>
-    <t>Prepared for Battle</t>
-  </si>
-  <si>
-    <t>Link 6</t>
-  </si>
-  <si>
-    <t>Fierce Battle</t>
-  </si>
-  <si>
-    <t>Link 7</t>
-  </si>
-  <si>
-    <t>Legendary Power</t>
-  </si>
-  <si>
-    <t>Passive Ki</t>
-  </si>
-  <si>
-    <t>Collect Ki</t>
-  </si>
-  <si>
-    <t>Intentional 12 Ki</t>
-  </si>
-  <si>
-    <t>Healing</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>P Guard</t>
-  </si>
-  <si>
-    <t>Dmg Red</t>
-  </si>
-  <si>
-    <t>P Dodge</t>
-  </si>
-  <si>
-    <t>P Counter Normal</t>
-  </si>
-  <si>
-    <t>P Counter SA</t>
-  </si>
-  <si>
-    <t>P Nullify</t>
-  </si>
-  <si>
-    <t>AA P Super</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>AA P Guarantee</t>
-  </si>
-  <si>
-    <t>Passive Crit</t>
-  </si>
-  <si>
-    <t>P SEaaT</t>
-  </si>
-  <si>
-    <t>Link 1 Commonality</t>
-  </si>
-  <si>
-    <t>Link 2 Commonality</t>
-  </si>
-  <si>
-    <t>Link 3 Commonality</t>
-  </si>
-  <si>
-    <t>Link 4 Commonality</t>
-  </si>
-  <si>
-    <t>Link 5 Commonality</t>
-  </si>
-  <si>
-    <t>Link 6 Commonality</t>
-  </si>
-  <si>
-    <t>Link 7 Commonality</t>
-  </si>
-  <si>
-    <t>Giant/Rage Length</t>
-  </si>
-  <si>
-    <t>Active Skill Attack Multiplier</t>
-  </si>
-  <si>
-    <t>Dmg Red Normal</t>
-  </si>
-  <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Immense</t>
-  </si>
-  <si>
-    <t>Active Skill Turn</t>
-  </si>
-  <si>
-    <t>Active Skill</t>
-  </si>
-  <si>
-    <t>Standby Skill</t>
-  </si>
-  <si>
-    <t>Revival Skill</t>
-  </si>
-  <si>
-    <t>Revival Skill Turn</t>
-  </si>
-  <si>
-    <t>Mega-Colossal</t>
+    <t>Experienced Fighters</t>
+  </si>
+  <si>
+    <t>[0.92637476, 0]</t>
+  </si>
+  <si>
+    <t>[0.48385, 0.80883]</t>
+  </si>
+  <si>
+    <t>[0.993, 0]</t>
+  </si>
+  <si>
+    <t>[0.9778, 0]</t>
+  </si>
+  <si>
+    <t>[0.48865, 0.9305305034197886]</t>
+  </si>
+  <si>
+    <t>[0.5, 0.974]</t>
+  </si>
+  <si>
+    <t>[0.5, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0]</t>
   </si>
 </sst>
 </file>
@@ -884,6 +905,26 @@
         <row r="7">
           <cell r="B7">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>5.25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1181,7 +1222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,7 +1233,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,13 +1279,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1252,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1260,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1276,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1292,7 +1333,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>44927</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1300,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>44927</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1308,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>13830</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1319,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1327,7 +1368,8 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>0.75</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1335,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1365,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1379,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1403,23 +1445,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f>1+5.5</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1427,7 +1471,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1441,7 +1485,8 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>1.58</f>
+        <v>1.58</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -1452,7 +1497,8 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>1.58</f>
+        <v>1.58</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -1460,10 +1506,19 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>0.2*(0.92+2*0.80883)/(1+0.92+0.80883)</f>
+        <v>0.18598886702359624</v>
+      </c>
+      <c r="D25">
+        <f>0.2*(0.92+2*0.80883)/(1+0.92+0.80883)+C27</f>
+        <v>0.73175486702359627</v>
+      </c>
+      <c r="E25">
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1474,10 +1529,18 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>0</v>
+      </c>
+      <c r="D26">
+        <f>C27</f>
+        <v>0.54576599999999997</v>
+      </c>
+      <c r="E26">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -1485,9 +1548,18 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
+        <f>0.2*(1+0.92+0.80883)</f>
+        <v>0.54576599999999997</v>
+      </c>
+      <c r="D27">
+        <f>E26-C27</f>
+        <v>0.45423400000000003</v>
+      </c>
+      <c r="E27">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M27">
@@ -1499,9 +1571,27 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>0.3*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F28">
+        <f>0.3*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="G28">
+        <f>0.3*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="M28">
@@ -1513,10 +1603,17 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -1530,7 +1627,8 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1555,7 +1653,8 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
@@ -1577,7 +1676,8 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -1602,7 +1702,8 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -1618,7 +1719,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1632,12 +1733,12 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1651,12 +1752,12 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1664,18 +1765,18 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1683,18 +1784,18 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1702,18 +1803,18 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1721,18 +1822,18 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1740,24 +1841,37 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>5+3</f>
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <f>5+3+1*(1+0.9205+0.80883)</f>
+        <v>10.729330000000001</v>
+      </c>
+      <c r="E52">
+        <f>5+3+5+5</f>
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <f>3+5+5</f>
+        <v>13</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -1765,23 +1879,43 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <f>[1]Sheet1!$B$6*1.5+[1]Sheet1!$B$7</f>
         <v>6.25</v>
       </c>
+      <c r="D53">
+        <f>[1]Sheet1!$B$6*1.5+[1]Sheet1!$B$7</f>
+        <v>6.25</v>
+      </c>
+      <c r="E53">
+        <f>[1]Sheet1!$B$14*2+[1]Sheet1!$B$15*1+[1]Sheet1!$B$16*1</f>
+        <v>12.5</v>
+      </c>
+      <c r="F53">
+        <f>[1]Sheet1!$B$14*2+[1]Sheet1!$B$15*1+[1]Sheet1!$B$16*1</f>
+        <v>12.5</v>
+      </c>
+      <c r="G53">
+        <f>[1]Sheet1!$B$14*2+[1]Sheet1!$B$15*1+[1]Sheet1!$B$16*1</f>
+        <v>12.5</v>
+      </c>
+      <c r="H53">
+        <f>[1]Sheet1!$B$6*1.5+[1]Sheet1!$B$7</f>
+        <v>6.25</v>
+      </c>
       <c r="M53">
-        <f>C53</f>
-        <v>6.25</v>
+        <f>12.5</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1792,7 +1926,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1809,12 +1943,30 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>2*1.2*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F56">
+        <f>2*1.2*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G56">
+        <f>2*1.2*(1-(1-[1]Sheet1!$B$17)^2)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="M56">
@@ -1826,7 +1978,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1840,7 +1992,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1851,18 +2003,39 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <f>0.4+0.2+0.2*0.9205</f>
+        <v>0.78410000000000013</v>
+      </c>
+      <c r="D59">
+        <f>0.4+0.2+0.2*0.977301889266495</f>
+        <v>0.79546037785329915</v>
+      </c>
+      <c r="E59">
+        <f>0.4+0.2+0.2*1</f>
+        <v>0.8</v>
+      </c>
+      <c r="F59">
+        <f>0.2+0.2*1</f>
+        <v>0.4</v>
+      </c>
+      <c r="G59">
+        <f>0.2+0.2*1</f>
+        <v>0.4</v>
+      </c>
+      <c r="H59">
+        <f>0.2+0.2*1</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1876,7 +2049,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1887,7 +2060,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1898,7 +2071,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1912,49 +2085,98 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" t="s">
+        <v>96</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>0.985</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="0">0.985</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
       <c r="M66">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1968,5 +2190,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>